--- a/Algoritmo_Rota/Planilhas/BFS/PLN_81_30.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_81_30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9664.799999999999</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>10668</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9038</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1606666564941406</v>
+        <v>9295</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67, 20, 2, 46, 8, 26, 79, 49, 74, 70, 65, 1, 16, 21, 34, 13, 68, 54, 24, 15, 35, 44, 48, 5, 60, 42, 18, 41, 53, 36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 68 -&gt; 70 -&gt; 15 -&gt; 21 -&gt; 67 -&gt; 18 -&gt; 16 -&gt; 48 -&gt; 46 -&gt; 20 -&gt; 24 -&gt; 13 -&gt; 36 -&gt; 35 -&gt; 42 -&gt; 41 -&gt; 44 -&gt; 54 -&gt; 49 -&gt; 53 -&gt; 79 -&gt; 34 -&gt; 26 -&gt; 5 -&gt; 2 -&gt; 74 -&gt; 1 -&gt; 8 -&gt; 65 -&gt; 60 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 18 -&gt; 68 -&gt; 70 -&gt; 68 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 67 -&gt; 21 -&gt; 18 -&gt; 19 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 48 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 17 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 81 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2150642871856689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>10334.23333333333</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>11199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8759</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2082860390345256</v>
+        <v>9973</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15, 4, 41, 53, 23, 37, 62, 78, 24, 27, 68, 52, 51, 57, 28, 1, 44, 80, 77, 69, 35, 20, 26, 10, 2, 29, 79, 31, 75, 7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 51 -&gt; 35 -&gt; 26 -&gt; 37 -&gt; 44 -&gt; 41 -&gt; 23 -&gt; 2 -&gt; 28 -&gt; 29 -&gt; 7 -&gt; 20 -&gt; 24 -&gt; 31 -&gt; 53 -&gt; 57 -&gt; 62 -&gt; 69 -&gt; 68 -&gt; 1 -&gt; 77 -&gt; 4 -&gt; 15 -&gt; 10 -&gt; 75 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 27 -&gt; 52 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 50 -&gt; 49 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 9 -&gt; 8 -&gt; 7 -&gt; 8 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 20 -&gt; 31 -&gt; 32 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 53 -&gt; 55 -&gt; 57 -&gt; 60 -&gt; 61 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 11 -&gt; 15 -&gt; 11 -&gt; 10 -&gt; 72 -&gt; 73 -&gt; 75 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 48 -&gt; 50 -&gt; 52 -&gt; 50 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.21551513671875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10570.96666666667</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>11457</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9255</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.200293493270874</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10421.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11197</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1612572987874349</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10317.16666666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11064</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9315</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2206587791442871</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11101.63333333333</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12283</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9593</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2378499825795491</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10503.86666666667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11327</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9254</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2371045430501302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9938.933333333332</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10695</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9191</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2288347005844116</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9431.733333333334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10225</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8513</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1636596361796061</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10146.33333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9316</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1809249718983968</v>
+        <v>9886</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63, 64, 40, 34, 31, 1, 29, 21, 76, 17, 47, 20, 11, 5, 9, 51, 2, 26, 27, 61, 60, 68, 37, 6, 41, 35, 45, 48, 33, 56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 11 -&gt; 2 -&gt; 1 -&gt; 33 -&gt; 27 -&gt; 6 -&gt; 26 -&gt; 17 -&gt; 20 -&gt; 63 -&gt; 64 -&gt; 21 -&gt; 68 -&gt; 41 -&gt; 37 -&gt; 40 -&gt; 31 -&gt; 34 -&gt; 9 -&gt; 35 -&gt; 29 -&gt; 47 -&gt; 48 -&gt; 45 -&gt; 61 -&gt; 60 -&gt; 56 -&gt; 51 -&gt; 76 -&gt; 5 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 27 -&gt; 33 -&gt; 27 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 68 -&gt; 18 -&gt; 19 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 36 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 9 -&gt; 28 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 44 -&gt; 46 -&gt; 47 -&gt; 48 -&gt; 47 -&gt; 46 -&gt; 45 -&gt; 49 -&gt; 53 -&gt; 55 -&gt; 57 -&gt; 60 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 54 -&gt; 56 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 74 -&gt; 4 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2047109603881836</v>
       </c>
     </row>
   </sheetData>
